--- a/SectionA/Data_driven/Register/Book1.xlsx
+++ b/SectionA/Data_driven/Register/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="13540" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,6 +43,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF000000"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="10"/>
       <scheme val="minor"/>
     </font>
@@ -134,9 +140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,15 +521,15 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="23" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="11.83203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="13.83203125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="14.6640625" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -626,7 +630,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
     </row>
@@ -676,7 +680,7 @@
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
     </row>
@@ -726,7 +730,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
     </row>
@@ -746,7 +750,7 @@
           <t>Trung</t>
         </is>
       </c>
-      <c r="D5" s="1" t="n"/>
+      <c r="D5" s="8" t="n"/>
       <c r="E5" s="1" t="n">
         <v>1979719585</v>
       </c>
@@ -818,12 +822,12 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="8" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Taylor</t>
@@ -870,7 +874,7 @@
           <t>luongdat</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n"/>
+      <c r="B8" s="8" t="n"/>
       <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Swift</t>
@@ -917,7 +921,7 @@
           <t>Thien</t>
         </is>
       </c>
-      <c r="C9" s="1" t="n"/>
+      <c r="C9" s="8" t="n"/>
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>kien1234567@gmail.com</t>
@@ -973,7 +977,7 @@
           <t>kien1234567@gmail.com</t>
         </is>
       </c>
-      <c r="E10" s="1" t="n"/>
+      <c r="E10" s="8" t="n"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
           <t>Kien1234</t>
@@ -1046,7 +1050,7 @@
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1130,7 @@
       <c r="E13" s="3" t="n">
         <v>1979719585</v>
       </c>
-      <c r="F13" s="3" t="n"/>
+      <c r="F13" s="8" t="n"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
           <t>abc</t>
@@ -1194,7 +1198,7 @@
       </c>
       <c r="J14" s="7" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1294,7 @@
       </c>
       <c r="J16" s="7" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
     </row>
